--- a/Project supporting Artifacts/DataCleaningDocumentation/FeatureUIRequirements.xlsx
+++ b/Project supporting Artifacts/DataCleaningDocumentation/FeatureUIRequirements.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tobi/Documents/TUD Masters/Group Project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tobi/Documents/GitHub/TUD-Group-Project/Project supporting Artifacts/DataCleaningDocumentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B3390A3-F3EC-B445-B761-8BF3A2369CD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6ECB6B2-C2EF-ED4A-AB88-409E1F2C7093}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{9AF54E71-4E9A-423E-8A07-24112C831AAE}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="133">
   <si>
     <t>Json</t>
   </si>
@@ -517,14 +517,27 @@
   <si>
     <t>Remove columns (remove_column)</t>
   </si>
+  <si>
+    <t>Justiifcatio for Function</t>
+  </si>
+  <si>
+    <t>Integrates missing value treatment efficiently into the data preprocessing pipeline, enhancing workflow efficiency and reducing errors.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -558,19 +571,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -885,10 +899,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B14EF5D-2ACB-42D9-9638-CB157AEBDFAB}">
-  <dimension ref="A1:I19"/>
+  <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -902,10 +916,11 @@
     <col min="7" max="7" width="13.33203125" style="1" customWidth="1"/>
     <col min="8" max="8" width="29.6640625" style="1" customWidth="1"/>
     <col min="9" max="9" width="93.6640625" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.83203125" style="1"/>
+    <col min="10" max="10" width="110.6640625" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -933,8 +948,11 @@
       <c r="I1" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="153" x14ac:dyDescent="0.2">
+      <c r="J1" s="6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="153" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -962,8 +980,11 @@
       <c r="I2" s="1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" ht="204" x14ac:dyDescent="0.2">
+      <c r="J2" s="6" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="204" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
@@ -992,7 +1013,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>23</v>
       </c>
@@ -1018,7 +1039,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>26</v>
       </c>
@@ -1047,7 +1068,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="153" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" ht="153" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>32</v>
       </c>
@@ -1076,7 +1097,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>44</v>
       </c>
@@ -1102,7 +1123,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>52</v>
       </c>
@@ -1128,7 +1149,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="119" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" ht="119" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>56</v>
       </c>
@@ -1157,7 +1178,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="102" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" ht="102" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>63</v>
       </c>
@@ -1186,7 +1207,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="153" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" ht="153" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>72</v>
       </c>
@@ -1215,7 +1236,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" ht="68" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>77</v>
       </c>
@@ -1244,7 +1265,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" ht="68" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>84</v>
       </c>
@@ -1273,7 +1294,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="136" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" ht="136" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>87</v>
       </c>
@@ -1302,7 +1323,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" ht="68" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>97</v>
       </c>
@@ -1331,7 +1352,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="204" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" ht="204" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>102</v>
       </c>

--- a/Project supporting Artifacts/DataCleaningDocumentation/FeatureUIRequirements.xlsx
+++ b/Project supporting Artifacts/DataCleaningDocumentation/FeatureUIRequirements.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tobi/Documents/GitHub/TUD-Group-Project/Project supporting Artifacts/DataCleaningDocumentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6ECB6B2-C2EF-ED4A-AB88-409E1F2C7093}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A8E4CF9-DCFD-6C47-95E0-C6048CE9F8D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{9AF54E71-4E9A-423E-8A07-24112C831AAE}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="134">
   <si>
     <t>Json</t>
   </si>
@@ -522,6 +522,9 @@
   </si>
   <si>
     <t>Integrates missing value treatment efficiently into the data preprocessing pipeline, enhancing workflow efficiency and reducing errors.</t>
+  </si>
+  <si>
+    <t>Essential for mitigating the impact of outliers on model performance, particularly in algorithms sensitive to data distribution like linear regression or clustering.</t>
   </si>
 </sst>
 </file>
@@ -916,7 +919,7 @@
     <col min="7" max="7" width="13.33203125" style="1" customWidth="1"/>
     <col min="8" max="8" width="29.6640625" style="1" customWidth="1"/>
     <col min="9" max="9" width="93.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="110.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="132" style="1" customWidth="1"/>
     <col min="11" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
@@ -1012,6 +1015,9 @@
       <c r="I3" s="4" t="s">
         <v>40</v>
       </c>
+      <c r="J3" s="6" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">

--- a/Project supporting Artifacts/DataCleaningDocumentation/FeatureUIRequirements.xlsx
+++ b/Project supporting Artifacts/DataCleaningDocumentation/FeatureUIRequirements.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tobi/Documents/GitHub/TUD-Group-Project/Project supporting Artifacts/DataCleaningDocumentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A8E4CF9-DCFD-6C47-95E0-C6048CE9F8D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B318E2A-92C1-CC42-ADC5-837A99D6AAFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{9AF54E71-4E9A-423E-8A07-24112C831AAE}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="135">
   <si>
     <t>Json</t>
   </si>
@@ -526,12 +526,15 @@
   <si>
     <t>Essential for mitigating the impact of outliers on model performance, particularly in algorithms sensitive to data distribution like linear regression or clustering.</t>
   </si>
+  <si>
+    <t>Crucial for addressing performance issues in machine learning algorithms caused by numerically diverse attribute scales.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -552,6 +555,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri (Body)"/>
     </font>
   </fonts>
   <fills count="2">
@@ -574,7 +582,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
@@ -588,6 +596,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -904,8 +913,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B14EF5D-2ACB-42D9-9638-CB157AEBDFAB}">
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView tabSelected="1" topLeftCell="D6" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -983,8 +992,8 @@
       <c r="I2" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="J2" s="6" t="s">
-        <v>132</v>
+      <c r="J2" s="7" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="204" x14ac:dyDescent="0.2">
@@ -1016,7 +1025,7 @@
         <v>40</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -1043,6 +1052,9 @@
       </c>
       <c r="I4" s="4" t="s">
         <v>41</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">

--- a/Project supporting Artifacts/DataCleaningDocumentation/FeatureUIRequirements.xlsx
+++ b/Project supporting Artifacts/DataCleaningDocumentation/FeatureUIRequirements.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tobi/Documents/GitHub/TUD-Group-Project/Project supporting Artifacts/DataCleaningDocumentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B318E2A-92C1-CC42-ADC5-837A99D6AAFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8309ED0C-6DC2-6343-A3CF-143FB70451E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{9AF54E71-4E9A-423E-8A07-24112C831AAE}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="136">
   <si>
     <t>Json</t>
   </si>
@@ -528,6 +528,9 @@
   </si>
   <si>
     <t>Crucial for addressing performance issues in machine learning algorithms caused by numerically diverse attribute scales.</t>
+  </si>
+  <si>
+    <t>Improves dataset clarity by renaming verbose, typo-ridden, or inconsistent columns, enhancing readability for users.</t>
   </si>
 </sst>
 </file>
@@ -913,8 +916,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B14EF5D-2ACB-42D9-9638-CB157AEBDFAB}">
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D6" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView tabSelected="1" topLeftCell="G5" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1166,6 +1169,9 @@
       <c r="I8" s="4" t="s">
         <v>55</v>
       </c>
+      <c r="J8" s="6" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="9" spans="1:10" ht="119" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">

--- a/Project supporting Artifacts/DataCleaningDocumentation/FeatureUIRequirements.xlsx
+++ b/Project supporting Artifacts/DataCleaningDocumentation/FeatureUIRequirements.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tobi/Documents/GitHub/TUD-Group-Project/Project supporting Artifacts/DataCleaningDocumentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8309ED0C-6DC2-6343-A3CF-143FB70451E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72EB4CD8-FFC7-4141-B485-141D6BD2E613}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{9AF54E71-4E9A-423E-8A07-24112C831AAE}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="137">
   <si>
     <t>Json</t>
   </si>
@@ -531,6 +531,9 @@
   </si>
   <si>
     <t>Improves dataset clarity by renaming verbose, typo-ridden, or inconsistent columns, enhancing readability for users.</t>
+  </si>
+  <si>
+    <t>Essential for eliminating special characters that are often artifacts, errors, or irrelevant in text data, thus reducing noise and improving dataset quality.</t>
   </si>
 </sst>
 </file>
@@ -917,7 +920,7 @@
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G5" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1201,6 +1204,9 @@
       <c r="I9" s="4" t="s">
         <v>62</v>
       </c>
+      <c r="J9" s="6" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="10" spans="1:10" ht="102" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">

--- a/Project supporting Artifacts/DataCleaningDocumentation/FeatureUIRequirements.xlsx
+++ b/Project supporting Artifacts/DataCleaningDocumentation/FeatureUIRequirements.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tobi/Documents/GitHub/TUD-Group-Project/Project supporting Artifacts/DataCleaningDocumentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72EB4CD8-FFC7-4141-B485-141D6BD2E613}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5B8C396-AE87-7C40-9AF9-8EDD972001F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{9AF54E71-4E9A-423E-8A07-24112C831AAE}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="138">
   <si>
     <t>Json</t>
   </si>
@@ -534,6 +534,9 @@
   </si>
   <si>
     <t>Essential for eliminating special characters that are often artifacts, errors, or irrelevant in text data, thus reducing noise and improving dataset quality.</t>
+  </si>
+  <si>
+    <t>Trimming whitespace reduces noise and potential errors in data processing and analysis, enhancing the overall data quality.</t>
   </si>
 </sst>
 </file>
@@ -920,7 +923,7 @@
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G5" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1236,6 +1239,9 @@
       <c r="I10" s="4" t="s">
         <v>68</v>
       </c>
+      <c r="J10" s="6" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="11" spans="1:10" ht="153" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">

--- a/Project supporting Artifacts/DataCleaningDocumentation/FeatureUIRequirements.xlsx
+++ b/Project supporting Artifacts/DataCleaningDocumentation/FeatureUIRequirements.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tobi/Documents/GitHub/TUD-Group-Project/Project supporting Artifacts/DataCleaningDocumentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5B8C396-AE87-7C40-9AF9-8EDD972001F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BB22EE3-7113-294B-8123-7C4922971779}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{9AF54E71-4E9A-423E-8A07-24112C831AAE}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="139">
   <si>
     <t>Json</t>
   </si>
@@ -537,6 +537,9 @@
   </si>
   <si>
     <t>Trimming whitespace reduces noise and potential errors in data processing and analysis, enhancing the overall data quality.</t>
+  </si>
+  <si>
+    <t>Enables the identification of non-linear relationships in data, beneficial for models, especially linear ones, that assume linear feature-target relationships.</t>
   </si>
 </sst>
 </file>
@@ -922,8 +925,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B14EF5D-2ACB-42D9-9638-CB157AEBDFAB}">
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G5" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView tabSelected="1" topLeftCell="H5" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1094,6 +1097,9 @@
       <c r="I5" s="4" t="s">
         <v>42</v>
       </c>
+      <c r="J5" s="6" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="6" spans="1:10" ht="153" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">

--- a/Project supporting Artifacts/DataCleaningDocumentation/FeatureUIRequirements.xlsx
+++ b/Project supporting Artifacts/DataCleaningDocumentation/FeatureUIRequirements.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tobi/Documents/GitHub/TUD-Group-Project/Project supporting Artifacts/DataCleaningDocumentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BB22EE3-7113-294B-8123-7C4922971779}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F025046D-60E1-7F46-B96D-635BA9A2DF08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{9AF54E71-4E9A-423E-8A07-24112C831AAE}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="146">
   <si>
     <t>Json</t>
   </si>
@@ -494,9 +494,6 @@
     <t>Only Datetime columns</t>
   </si>
   <si>
-    <t>: A section to view the DataFrame after the datetime components have been extracted and added as new columns.</t>
-  </si>
-  <si>
     <t>Datetime componnets (extract_datetime_componnents)</t>
   </si>
   <si>
@@ -540,6 +537,33 @@
   </si>
   <si>
     <t>Enables the identification of non-linear relationships in data, beneficial for models, especially linear ones, that assume linear feature-target relationships.</t>
+  </si>
+  <si>
+    <t>Converts categorical data into numerical values, making it compatible with machine learning algorithms that require numerical input.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> To convert categorical values in a specified column of a DataFrame into numerical labels.</t>
+  </si>
+  <si>
+    <t>Label Encode (label_encode)</t>
+  </si>
+  <si>
+    <t>An interface element, like a dropdown menu, for selecting the categorical column to be label encoded.</t>
+  </si>
+  <si>
+    <t>Label Encoding</t>
+  </si>
+  <si>
+    <t>"label_encode": [
+        "example_categorical_column1",
+        "example_categorical_column2"
+    ]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> A section to view the DataFrame after the datetime components have been extracted and added as new columns.</t>
+  </si>
+  <si>
+    <t>A section to view the DataFrame after the label encoding has been applied to the column.</t>
   </si>
 </sst>
 </file>
@@ -594,7 +618,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
@@ -609,6 +633,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -923,10 +950,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B14EF5D-2ACB-42D9-9638-CB157AEBDFAB}">
-  <dimension ref="A1:J19"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H5" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView tabSelected="1" topLeftCell="F17" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -973,7 +1000,7 @@
         <v>38</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="153" x14ac:dyDescent="0.2">
@@ -1005,7 +1032,7 @@
         <v>39</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="204" x14ac:dyDescent="0.2">
@@ -1037,7 +1064,7 @@
         <v>40</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -1066,7 +1093,7 @@
         <v>41</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
@@ -1098,7 +1125,7 @@
         <v>42</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="153" x14ac:dyDescent="0.2">
@@ -1182,7 +1209,7 @@
         <v>55</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="119" x14ac:dyDescent="0.2">
@@ -1214,7 +1241,7 @@
         <v>62</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="102" x14ac:dyDescent="0.2">
@@ -1246,7 +1273,7 @@
         <v>68</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="153" x14ac:dyDescent="0.2">
@@ -1423,7 +1450,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="153" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" ht="153" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>87</v>
       </c>
@@ -1452,9 +1479,9 @@
         <v>112</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="238" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" ht="238" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>116</v>
@@ -1477,25 +1504,25 @@
       <c r="H18" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="I18" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I18" s="6" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>49</v>
@@ -1504,7 +1531,39 @@
         <v>49</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="136" x14ac:dyDescent="0.2">
+      <c r="A20" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="I20" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="J20" s="6" t="s">
+        <v>138</v>
       </c>
     </row>
   </sheetData>

--- a/Project supporting Artifacts/DataCleaningDocumentation/FeatureUIRequirements.xlsx
+++ b/Project supporting Artifacts/DataCleaningDocumentation/FeatureUIRequirements.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tobi/Documents/GitHub/TUD-Group-Project/Project supporting Artifacts/DataCleaningDocumentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F025046D-60E1-7F46-B96D-635BA9A2DF08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18672B3B-A6BE-C146-82E5-57ACF70DF0D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{9AF54E71-4E9A-423E-8A07-24112C831AAE}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="147">
   <si>
     <t>Json</t>
   </si>
@@ -564,6 +564,9 @@
   </si>
   <si>
     <t>A section to view the DataFrame after the label encoding has been applied to the column.</t>
+  </si>
+  <si>
+    <t>Essential for removing non-contributory columns from large datasets, simplifying the model and potentially improving performance by addressing the curse of dimensionality.</t>
   </si>
 </sst>
 </file>
@@ -952,8 +955,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B14EF5D-2ACB-42D9-9638-CB157AEBDFAB}">
   <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F17" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView tabSelected="1" topLeftCell="G16" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1533,6 +1536,9 @@
       <c r="I19" s="1" t="s">
         <v>125</v>
       </c>
+      <c r="J19" s="6" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="20" spans="1:10" ht="136" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">

--- a/Project supporting Artifacts/DataCleaningDocumentation/FeatureUIRequirements.xlsx
+++ b/Project supporting Artifacts/DataCleaningDocumentation/FeatureUIRequirements.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tobi/Documents/GitHub/TUD-Group-Project/Project supporting Artifacts/DataCleaningDocumentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18672B3B-A6BE-C146-82E5-57ACF70DF0D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAF3E6F4-E1D8-174B-A0F8-A693075C70EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{9AF54E71-4E9A-423E-8A07-24112C831AAE}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="148">
   <si>
     <t>Json</t>
   </si>
@@ -567,6 +567,9 @@
   </si>
   <si>
     <t>Essential for removing non-contributory columns from large datasets, simplifying the model and potentially improving performance by addressing the curse of dimensionality.</t>
+  </si>
+  <si>
+    <t>Breaks down datetime objects into components (year, month, day, etc.), enabling more detailed analysis of time-based patterns and trends.</t>
   </si>
 </sst>
 </file>
@@ -956,7 +959,7 @@
   <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G16" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -970,7 +973,7 @@
     <col min="7" max="7" width="13.33203125" style="1" customWidth="1"/>
     <col min="8" max="8" width="29.6640625" style="1" customWidth="1"/>
     <col min="9" max="9" width="93.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="132" style="1" customWidth="1"/>
+    <col min="10" max="10" width="144.1640625" style="1" customWidth="1"/>
     <col min="11" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
@@ -1510,6 +1513,9 @@
       <c r="I18" s="6" t="s">
         <v>144</v>
       </c>
+      <c r="J18" s="6" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">

--- a/Project supporting Artifacts/DataCleaningDocumentation/FeatureUIRequirements.xlsx
+++ b/Project supporting Artifacts/DataCleaningDocumentation/FeatureUIRequirements.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tobi/Documents/GitHub/TUD-Group-Project/Project supporting Artifacts/DataCleaningDocumentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAF3E6F4-E1D8-174B-A0F8-A693075C70EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFC8C10B-43D2-EF40-BF9C-888779438F04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{9AF54E71-4E9A-423E-8A07-24112C831AAE}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="149">
   <si>
     <t>Json</t>
   </si>
@@ -570,6 +570,9 @@
   </si>
   <si>
     <t>Breaks down datetime objects into components (year, month, day, etc.), enabling more detailed analysis of time-based patterns and trends.</t>
+  </si>
+  <si>
+    <t>Standardizes textual variations in datasets by replacing specific substrings, addressing inconsistencies in representations of words or phrases.</t>
   </si>
 </sst>
 </file>
@@ -958,8 +961,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B14EF5D-2ACB-42D9-9638-CB157AEBDFAB}">
   <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G16" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView tabSelected="1" topLeftCell="G8" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1310,6 +1313,9 @@
       <c r="I11" s="1" t="s">
         <v>75</v>
       </c>
+      <c r="J11" s="6" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="12" spans="1:10" ht="68" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
@@ -1498,7 +1504,7 @@
       <c r="D18" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="E18" s="6" t="s">
         <v>119</v>
       </c>
       <c r="F18" s="3" t="s">

--- a/Project supporting Artifacts/DataCleaningDocumentation/FeatureUIRequirements.xlsx
+++ b/Project supporting Artifacts/DataCleaningDocumentation/FeatureUIRequirements.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tobi/Documents/GitHub/TUD-Group-Project/Project supporting Artifacts/DataCleaningDocumentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFC8C10B-43D2-EF40-BF9C-888779438F04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A1F178A-149A-1B47-AC7A-E18347F214FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{9AF54E71-4E9A-423E-8A07-24112C831AAE}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="150">
   <si>
     <t>Json</t>
   </si>
@@ -573,6 +573,9 @@
   </si>
   <si>
     <t>Standardizes textual variations in datasets by replacing specific substrings, addressing inconsistencies in representations of words or phrases.</t>
+  </si>
+  <si>
+    <t>Effectively reduces the number of variables in a dataset while preserving essential information, especially useful in datasets with many features, to decrease computational complexity and enhance algorithm efficiency.</t>
   </si>
 </sst>
 </file>
@@ -961,8 +964,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B14EF5D-2ACB-42D9-9638-CB157AEBDFAB}">
   <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G8" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView tabSelected="1" topLeftCell="I5" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -976,7 +979,7 @@
     <col min="7" max="7" width="13.33203125" style="1" customWidth="1"/>
     <col min="8" max="8" width="29.6640625" style="1" customWidth="1"/>
     <col min="9" max="9" width="93.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="144.1640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="178.5" style="1" customWidth="1"/>
     <col min="11" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
@@ -1165,6 +1168,9 @@
       <c r="I6" s="4" t="s">
         <v>43</v>
       </c>
+      <c r="J6" s="6" t="s">
+        <v>149</v>
+      </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">

--- a/Project supporting Artifacts/DataCleaningDocumentation/FeatureUIRequirements.xlsx
+++ b/Project supporting Artifacts/DataCleaningDocumentation/FeatureUIRequirements.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tobi/Documents/GitHub/TUD-Group-Project/Project supporting Artifacts/DataCleaningDocumentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A1F178A-149A-1B47-AC7A-E18347F214FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7338913E-BDF0-B540-B8BC-CEDC47DD0738}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{9AF54E71-4E9A-423E-8A07-24112C831AAE}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="151">
   <si>
     <t>Json</t>
   </si>
@@ -576,6 +576,9 @@
   </si>
   <si>
     <t>Effectively reduces the number of variables in a dataset while preserving essential information, especially useful in datasets with many features, to decrease computational complexity and enhance algorithm efficiency.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Models that depend on time-based data, like forecasting models, require precise and correctly formatted time data. Parsing ensures that the input data meets these requirements.</t>
   </si>
 </sst>
 </file>
@@ -964,8 +967,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B14EF5D-2ACB-42D9-9638-CB157AEBDFAB}">
   <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I5" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView tabSelected="1" topLeftCell="D12" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1496,6 +1499,9 @@
       <c r="I17" s="1" t="s">
         <v>112</v>
       </c>
+      <c r="J17" s="6" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="18" spans="1:10" ht="238" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">

--- a/Project supporting Artifacts/DataCleaningDocumentation/FeatureUIRequirements.xlsx
+++ b/Project supporting Artifacts/DataCleaningDocumentation/FeatureUIRequirements.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tobi/Documents/GitHub/TUD-Group-Project/Project supporting Artifacts/DataCleaningDocumentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7338913E-BDF0-B540-B8BC-CEDC47DD0738}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CBECFD5-5A75-6849-8795-8AF0585502DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{9AF54E71-4E9A-423E-8A07-24112C831AAE}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="152">
   <si>
     <t>Json</t>
   </si>
@@ -579,6 +579,9 @@
   </si>
   <si>
     <t xml:space="preserve"> Models that depend on time-based data, like forecasting models, require precise and correctly formatted time data. Parsing ensures that the input data meets these requirements.</t>
+  </si>
+  <si>
+    <t>By eliminating stop words, the text data size is reduced, which can accelerate the processing of various NLP tasks such as text classification, sentiment analysis, and topic modeling.</t>
   </si>
 </sst>
 </file>
@@ -967,8 +970,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B14EF5D-2ACB-42D9-9638-CB157AEBDFAB}">
   <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D12" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView tabSelected="1" topLeftCell="I11" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1383,6 +1386,9 @@
       <c r="I13" s="4" t="s">
         <v>86</v>
       </c>
+      <c r="J13" s="6" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="14" spans="1:10" ht="136" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">

--- a/Project supporting Artifacts/DataCleaningDocumentation/FeatureUIRequirements.xlsx
+++ b/Project supporting Artifacts/DataCleaningDocumentation/FeatureUIRequirements.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tobi/Documents/GitHub/TUD-Group-Project/Project supporting Artifacts/DataCleaningDocumentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CBECFD5-5A75-6849-8795-8AF0585502DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CB74AC3-FA7C-D145-A4AA-8442D7DE7FA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{9AF54E71-4E9A-423E-8A07-24112C831AAE}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="153">
   <si>
     <t>Json</t>
   </si>
@@ -582,6 +582,9 @@
   </si>
   <si>
     <t>By eliminating stop words, the text data size is reduced, which can accelerate the processing of various NLP tasks such as text classification, sentiment analysis, and topic modeling.</t>
+  </si>
+  <si>
+    <t>Machine learning models can become overly complex when dealing with a large number of categories, some of which are rarely represented. Simplifying the number of categories can improve model performance and generalizability.</t>
   </si>
 </sst>
 </file>
@@ -970,8 +973,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B14EF5D-2ACB-42D9-9638-CB157AEBDFAB}">
   <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I11" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView tabSelected="1" topLeftCell="I9" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1418,6 +1421,9 @@
       <c r="I14" s="4" t="s">
         <v>95</v>
       </c>
+      <c r="J14" s="6" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="15" spans="1:10" ht="68" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">

--- a/Project supporting Artifacts/DataCleaningDocumentation/FeatureUIRequirements.xlsx
+++ b/Project supporting Artifacts/DataCleaningDocumentation/FeatureUIRequirements.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tobi/Documents/GitHub/TUD-Group-Project/Project supporting Artifacts/DataCleaningDocumentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CB74AC3-FA7C-D145-A4AA-8442D7DE7FA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAAC8527-8B93-BF4A-893C-D6D57DD3E5F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{9AF54E71-4E9A-423E-8A07-24112C831AAE}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="154">
   <si>
     <t>Json</t>
   </si>
@@ -585,6 +585,9 @@
   </si>
   <si>
     <t>Machine learning models can become overly complex when dealing with a large number of categories, some of which are rarely represented. Simplifying the number of categories can improve model performance and generalizability.</t>
+  </si>
+  <si>
+    <t>In text analytics, tokenization is a precursor to vectorization methods like Bag of Words or TF-IDF, which transform text data into numerical formats that machine learning algorithms can process.</t>
   </si>
 </sst>
 </file>
@@ -973,7 +976,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B14EF5D-2ACB-42D9-9638-CB157AEBDFAB}">
   <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I9" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="I10" workbookViewId="0">
       <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
@@ -1453,6 +1456,9 @@
       <c r="I15" s="1" t="s">
         <v>100</v>
       </c>
+      <c r="J15" s="6" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row r="16" spans="1:10" ht="204" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">

--- a/Project supporting Artifacts/DataCleaningDocumentation/FeatureUIRequirements.xlsx
+++ b/Project supporting Artifacts/DataCleaningDocumentation/FeatureUIRequirements.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tobi/Documents/GitHub/TUD-Group-Project/Project supporting Artifacts/DataCleaningDocumentation/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/seanmccrossan/group_project/TUD-Group-Project/Project supporting Artifacts/DataCleaningDocumentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAAC8527-8B93-BF4A-893C-D6D57DD3E5F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6E25C60-B545-9547-A59B-98CA72B91BA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{9AF54E71-4E9A-423E-8A07-24112C831AAE}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="33600" windowHeight="20200" xr2:uid="{9AF54E71-4E9A-423E-8A07-24112C831AAE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -594,9 +594,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -622,12 +629,24 @@
       <name val="Calibri (Body)"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -642,23 +661,48 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -976,39 +1020,39 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B14EF5D-2ACB-42D9-9638-CB157AEBDFAB}">
   <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I10" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="55" style="1" customWidth="1"/>
-    <col min="2" max="2" width="149.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="140.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="187.33203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="36.1640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="28.33203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="31.6640625" style="8" customWidth="1"/>
+    <col min="3" max="3" width="28.33203125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="22.33203125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="24.5" style="12" customWidth="1"/>
     <col min="6" max="6" width="24.5" style="1" customWidth="1"/>
     <col min="7" max="7" width="13.33203125" style="1" customWidth="1"/>
     <col min="8" max="8" width="29.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="93.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="178.5" style="1" customWidth="1"/>
+    <col min="9" max="9" width="31.1640625" style="9" customWidth="1"/>
+    <col min="10" max="10" width="31.6640625" style="8" customWidth="1"/>
     <col min="11" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="12" t="s">
         <v>5</v>
       </c>
       <c r="F1" s="1" t="s">
@@ -1020,7 +1064,7 @@
       <c r="H1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="9" t="s">
         <v>38</v>
       </c>
       <c r="J1" s="6" t="s">
@@ -1028,22 +1072,22 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="153" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G2" s="1" t="s">
@@ -1052,7 +1096,7 @@
       <c r="H2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="9" t="s">
         <v>39</v>
       </c>
       <c r="J2" s="7" t="s">
@@ -1060,51 +1104,51 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="204" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>7</v>
+      <c r="G3" s="5" t="s">
+        <v>49</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I3" s="10" t="s">
         <v>40</v>
       </c>
       <c r="J3" s="6" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:10" ht="85" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="12" t="s">
         <v>22</v>
       </c>
       <c r="G4" s="1" t="s">
@@ -1113,30 +1157,30 @@
       <c r="H4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="I4" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="J4" s="8" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="2" t="s">
         <v>31</v>
       </c>
       <c r="G5" s="1" t="s">
@@ -1145,7 +1189,7 @@
       <c r="H5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="I5" s="10" t="s">
         <v>42</v>
       </c>
       <c r="J5" s="6" t="s">
@@ -1153,22 +1197,22 @@
       </c>
     </row>
     <row r="6" spans="1:10" ht="153" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="2" t="s">
         <v>37</v>
       </c>
       <c r="G6" s="1" t="s">
@@ -1177,27 +1221,27 @@
       <c r="H6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I6" s="4" t="s">
+      <c r="I6" s="10" t="s">
         <v>43</v>
       </c>
       <c r="J6" s="6" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="12" t="s">
         <v>48</v>
       </c>
       <c r="G7" s="1" t="s">
@@ -1206,24 +1250,24 @@
       <c r="H7" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="I7" s="4" t="s">
+      <c r="I7" s="10" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:10" ht="68" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" s="12" t="s">
         <v>54</v>
       </c>
       <c r="G8" s="1" t="s">
@@ -1232,7 +1276,7 @@
       <c r="H8" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="I8" s="4" t="s">
+      <c r="I8" s="10" t="s">
         <v>55</v>
       </c>
       <c r="J8" s="6" t="s">
@@ -1240,22 +1284,22 @@
       </c>
     </row>
     <row r="9" spans="1:10" ht="119" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="2" t="s">
         <v>66</v>
       </c>
       <c r="G9" s="1" t="s">
@@ -1264,7 +1308,7 @@
       <c r="H9" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="I9" s="4" t="s">
+      <c r="I9" s="10" t="s">
         <v>62</v>
       </c>
       <c r="J9" s="6" t="s">
@@ -1272,22 +1316,22 @@
       </c>
     </row>
     <row r="10" spans="1:10" ht="102" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" s="2" t="s">
         <v>67</v>
       </c>
       <c r="G10" s="1" t="s">
@@ -1296,7 +1340,7 @@
       <c r="H10" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="I10" s="4" t="s">
+      <c r="I10" s="10" t="s">
         <v>68</v>
       </c>
       <c r="J10" s="6" t="s">
@@ -1304,22 +1348,22 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="153" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E11" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F11" s="2" t="s">
         <v>74</v>
       </c>
       <c r="G11" s="1" t="s">
@@ -1328,7 +1372,7 @@
       <c r="H11" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="I11" s="1" t="s">
+      <c r="I11" s="9" t="s">
         <v>75</v>
       </c>
       <c r="J11" s="6" t="s">
@@ -1336,22 +1380,22 @@
       </c>
     </row>
     <row r="12" spans="1:10" ht="68" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E12" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="F12" s="2" t="s">
         <v>80</v>
       </c>
       <c r="G12" s="1" t="s">
@@ -1360,27 +1404,27 @@
       <c r="H12" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="I12" s="4" t="s">
+      <c r="I12" s="10" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="68" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:10" ht="102" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E13" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="F13" s="2" t="s">
         <v>85</v>
       </c>
       <c r="G13" s="1" t="s">
@@ -1389,7 +1433,7 @@
       <c r="H13" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="I13" s="4" t="s">
+      <c r="I13" s="10" t="s">
         <v>86</v>
       </c>
       <c r="J13" s="6" t="s">
@@ -1397,22 +1441,22 @@
       </c>
     </row>
     <row r="14" spans="1:10" ht="136" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E14" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="F14" s="2" t="s">
         <v>92</v>
       </c>
       <c r="G14" s="1" t="s">
@@ -1421,30 +1465,30 @@
       <c r="H14" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="I14" s="4" t="s">
+      <c r="I14" s="10" t="s">
         <v>95</v>
       </c>
       <c r="J14" s="6" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="68" x14ac:dyDescent="0.2">
-      <c r="A15" s="5" t="s">
+    <row r="15" spans="1:10" ht="102" x14ac:dyDescent="0.2">
+      <c r="A15" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="E15" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="F15" s="2" t="s">
         <v>99</v>
       </c>
       <c r="G15" s="1" t="s">
@@ -1453,7 +1497,7 @@
       <c r="H15" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="I15" s="1" t="s">
+      <c r="I15" s="9" t="s">
         <v>100</v>
       </c>
       <c r="J15" s="6" t="s">
@@ -1461,22 +1505,22 @@
       </c>
     </row>
     <row r="16" spans="1:10" ht="204" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="E16" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="F16" s="2" t="s">
         <v>106</v>
       </c>
       <c r="G16" s="1" t="s">
@@ -1485,27 +1529,27 @@
       <c r="H16" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="I16" s="1" t="s">
+      <c r="I16" s="9" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="153" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="E17" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="F17" s="2" t="s">
         <v>109</v>
       </c>
       <c r="G17" s="1" t="s">
@@ -1514,7 +1558,7 @@
       <c r="H17" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="I17" s="1" t="s">
+      <c r="I17" s="9" t="s">
         <v>112</v>
       </c>
       <c r="J17" s="6" t="s">
@@ -1522,22 +1566,22 @@
       </c>
     </row>
     <row r="18" spans="1:10" ht="238" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D18" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="E18" s="6" t="s">
+      <c r="E18" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="F18" s="3" t="s">
+      <c r="F18" s="2" t="s">
         <v>120</v>
       </c>
       <c r="G18" s="1" t="s">
@@ -1546,27 +1590,27 @@
       <c r="H18" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="I18" s="6" t="s">
+      <c r="I18" s="11" t="s">
         <v>144</v>
       </c>
       <c r="J18" s="6" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
+    <row r="19" spans="1:10" ht="102" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="D19" s="17" t="s">
         <v>126</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="E19" s="12" t="s">
         <v>124</v>
       </c>
       <c r="G19" s="1" t="s">
@@ -1575,7 +1619,7 @@
       <c r="H19" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="I19" s="1" t="s">
+      <c r="I19" s="9" t="s">
         <v>125</v>
       </c>
       <c r="J19" s="6" t="s">
@@ -1583,31 +1627,31 @@
       </c>
     </row>
     <row r="20" spans="1:10" ht="136" x14ac:dyDescent="0.2">
-      <c r="A20" s="6" t="s">
+      <c r="A20" s="4" t="s">
         <v>140</v>
       </c>
       <c r="B20" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="D20" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="E20" s="6" t="s">
+      <c r="E20" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="F20" s="8" t="s">
+      <c r="F20" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="G20" s="6" t="s">
+      <c r="G20" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="H20" s="6" t="s">
+      <c r="H20" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="I20" s="6" t="s">
+      <c r="I20" s="11" t="s">
         <v>145</v>
       </c>
       <c r="J20" s="6" t="s">

--- a/Project supporting Artifacts/DataCleaningDocumentation/FeatureUIRequirements.xlsx
+++ b/Project supporting Artifacts/DataCleaningDocumentation/FeatureUIRequirements.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/seanmccrossan/group_project/TUD-Group-Project/Project supporting Artifacts/DataCleaningDocumentation/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tobi/Documents/GitHub/TUD-Group-Project/Project supporting Artifacts/DataCleaningDocumentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6E25C60-B545-9547-A59B-98CA72B91BA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E6E9280-271D-D947-A1B7-9A12B054BAB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="33600" windowHeight="20200" xr2:uid="{9AF54E71-4E9A-423E-8A07-24112C831AAE}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{9AF54E71-4E9A-423E-8A07-24112C831AAE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -594,9 +594,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -661,48 +668,54 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1020,8 +1033,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B14EF5D-2ACB-42D9-9638-CB157AEBDFAB}">
   <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1075,16 +1088,16 @@
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="14" t="s">
         <v>11</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="18" t="s">
         <v>8</v>
       </c>
       <c r="F2" s="2" t="s">
@@ -1107,16 +1120,16 @@
       <c r="A3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="14" t="s">
         <v>19</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="18" t="s">
         <v>16</v>
       </c>
       <c r="F3" s="2" t="s">
@@ -1131,7 +1144,7 @@
       <c r="I3" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="J3" s="16" t="s">
         <v>131</v>
       </c>
     </row>
@@ -1139,16 +1152,16 @@
       <c r="A4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="14" t="s">
         <v>25</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="18" t="s">
         <v>22</v>
       </c>
       <c r="G4" s="1" t="s">
@@ -1160,7 +1173,7 @@
       <c r="I4" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="J4" s="8" t="s">
+      <c r="J4" s="16" t="s">
         <v>132</v>
       </c>
     </row>
@@ -1168,7 +1181,7 @@
       <c r="A5" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="16" t="s">
         <v>27</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -1177,10 +1190,10 @@
       <c r="D5" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="19" t="s">
         <v>31</v>
       </c>
       <c r="G5" s="1" t="s">
@@ -1192,7 +1205,7 @@
       <c r="I5" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="J5" s="6" t="s">
+      <c r="J5" s="16" t="s">
         <v>137</v>
       </c>
     </row>
@@ -1200,16 +1213,16 @@
       <c r="A6" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="16" t="s">
         <v>33</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D6" s="17" t="s">
+      <c r="D6" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="E6" s="18" t="s">
         <v>36</v>
       </c>
       <c r="F6" s="2" t="s">
@@ -1224,7 +1237,7 @@
       <c r="I6" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="J6" s="6" t="s">
+      <c r="J6" s="16" t="s">
         <v>149</v>
       </c>
     </row>
@@ -1232,7 +1245,7 @@
       <c r="A7" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="16" t="s">
         <v>45</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -1241,7 +1254,7 @@
       <c r="D7" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="18" t="s">
         <v>48</v>
       </c>
       <c r="G7" s="1" t="s">
@@ -1258,10 +1271,10 @@
       <c r="A8" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="15" t="s">
         <v>47</v>
       </c>
       <c r="D8" s="2" t="s">
@@ -1279,7 +1292,7 @@
       <c r="I8" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="J8" s="6" t="s">
+      <c r="J8" s="16" t="s">
         <v>134</v>
       </c>
     </row>
@@ -1287,7 +1300,7 @@
       <c r="A9" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="17" t="s">
         <v>58</v>
       </c>
       <c r="C9" s="2" t="s">
@@ -1296,7 +1309,7 @@
       <c r="D9" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E9" s="12" t="s">
+      <c r="E9" s="18" t="s">
         <v>57</v>
       </c>
       <c r="F9" s="2" t="s">
@@ -1319,7 +1332,7 @@
       <c r="A10" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="17" t="s">
         <v>64</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -1328,7 +1341,7 @@
       <c r="D10" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E10" s="12" t="s">
+      <c r="E10" s="18" t="s">
         <v>65</v>
       </c>
       <c r="F10" s="2" t="s">
@@ -1343,7 +1356,7 @@
       <c r="I10" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="J10" s="6" t="s">
+      <c r="J10" s="16" t="s">
         <v>136</v>
       </c>
     </row>
@@ -1351,19 +1364,19 @@
       <c r="A11" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="17" t="s">
         <v>71</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D11" s="17" t="s">
+      <c r="D11" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="E11" s="12" t="s">
+      <c r="E11" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="F11" s="19" t="s">
         <v>74</v>
       </c>
       <c r="G11" s="1" t="s">
@@ -1375,7 +1388,7 @@
       <c r="I11" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="J11" s="6" t="s">
+      <c r="J11" s="16" t="s">
         <v>148</v>
       </c>
     </row>
@@ -1383,7 +1396,7 @@
       <c r="A12" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="17" t="s">
         <v>78</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -1392,7 +1405,7 @@
       <c r="D12" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E12" s="12" t="s">
+      <c r="E12" s="18" t="s">
         <v>76</v>
       </c>
       <c r="F12" s="2" t="s">
@@ -1412,7 +1425,7 @@
       <c r="A13" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="16" t="s">
         <v>83</v>
       </c>
       <c r="C13" s="2" t="s">
@@ -1421,7 +1434,7 @@
       <c r="D13" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E13" s="12" t="s">
+      <c r="E13" s="18" t="s">
         <v>82</v>
       </c>
       <c r="F13" s="2" t="s">
@@ -1436,7 +1449,7 @@
       <c r="I13" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="J13" s="6" t="s">
+      <c r="J13" s="16" t="s">
         <v>151</v>
       </c>
     </row>
@@ -1444,16 +1457,16 @@
       <c r="A14" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B14" s="14" t="s">
+      <c r="B14" s="17" t="s">
         <v>88</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="D14" s="17" t="s">
+      <c r="D14" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="E14" s="12" t="s">
+      <c r="E14" s="18" t="s">
         <v>91</v>
       </c>
       <c r="F14" s="2" t="s">
@@ -1468,15 +1481,15 @@
       <c r="I14" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="J14" s="6" t="s">
+      <c r="J14" s="16" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="102" x14ac:dyDescent="0.2">
-      <c r="A15" s="15" t="s">
+      <c r="A15" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="16" t="s">
         <v>98</v>
       </c>
       <c r="C15" s="2" t="s">
@@ -1500,7 +1513,7 @@
       <c r="I15" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="J15" s="6" t="s">
+      <c r="J15" s="16" t="s">
         <v>153</v>
       </c>
     </row>
@@ -1508,7 +1521,7 @@
       <c r="A16" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="16" t="s">
         <v>103</v>
       </c>
       <c r="C16" s="2" t="s">
@@ -1517,7 +1530,7 @@
       <c r="D16" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="E16" s="12" t="s">
+      <c r="E16" s="18" t="s">
         <v>101</v>
       </c>
       <c r="F16" s="2" t="s">
@@ -1537,7 +1550,7 @@
       <c r="A17" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="16" t="s">
         <v>115</v>
       </c>
       <c r="C17" s="2" t="s">
@@ -1546,7 +1559,7 @@
       <c r="D17" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="E17" s="12" t="s">
+      <c r="E17" s="18" t="s">
         <v>108</v>
       </c>
       <c r="F17" s="2" t="s">
@@ -1561,7 +1574,7 @@
       <c r="I17" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="J17" s="6" t="s">
+      <c r="J17" s="16" t="s">
         <v>150</v>
       </c>
     </row>
@@ -1569,16 +1582,16 @@
       <c r="A18" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="B18" s="14" t="s">
+      <c r="B18" s="17" t="s">
         <v>116</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="D18" s="17" t="s">
+      <c r="D18" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="E18" s="13" t="s">
+      <c r="E18" s="18" t="s">
         <v>119</v>
       </c>
       <c r="F18" s="2" t="s">
@@ -1593,7 +1606,7 @@
       <c r="I18" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="J18" s="6" t="s">
+      <c r="J18" s="16" t="s">
         <v>147</v>
       </c>
     </row>
@@ -1601,13 +1614,13 @@
       <c r="A19" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="B19" s="14" t="s">
+      <c r="B19" s="17" t="s">
         <v>128</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="D19" s="17" t="s">
+      <c r="D19" s="15" t="s">
         <v>126</v>
       </c>
       <c r="E19" s="12" t="s">
@@ -1622,7 +1635,7 @@
       <c r="I19" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="J19" s="6" t="s">
+      <c r="J19" s="16" t="s">
         <v>146</v>
       </c>
     </row>
@@ -1630,7 +1643,7 @@
       <c r="A20" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="16" t="s">
         <v>139</v>
       </c>
       <c r="C20" s="4" t="s">
@@ -1639,7 +1652,7 @@
       <c r="D20" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="E20" s="13" t="s">
+      <c r="E20" s="18" t="s">
         <v>142</v>
       </c>
       <c r="F20" s="4" t="s">
@@ -1654,7 +1667,7 @@
       <c r="I20" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="J20" s="6" t="s">
+      <c r="J20" s="16" t="s">
         <v>138</v>
       </c>
     </row>
